--- a/price_full.xlsx
+++ b/price_full.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,15 +441,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SE 128 (2022) Midnight</t>
+          <t>SE 64 Midnight (2022)</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36000</v>
+        <v>30500</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>🇺🇸</t>
+          <t>🇦🇪</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -458,119 +458,119 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>59000</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SE 64 Starlight (2022)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30500</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>🇮🇳</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>11 128 White</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>44000</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>🇮🇳</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14 128 Midnight</t>
+          <t>14 128 Starlight</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>61800</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇯🇵</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12 64 Green</t>
+          <t>SE 128 Starlight (2022)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45500</v>
+        <v>36000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>🇺🇸</t>
+          <t>🇦🇪</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14 128 Starlight</t>
+          <t>14 128 Purple</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>59000</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SE 128 Midnight (2022)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36000</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>🇮🇳</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>13 128 Starlight</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>56000</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>🇮🇳</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14 128 Starlight</t>
+          <t>14 128 Purple</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>61900</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>🇬🇧</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11 64 Black</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36500</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>🇮🇳</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>13 128 Midnight</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>56000</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>🇺🇸</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14 128 Red</t>
+          <t>14 128 Blue</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>59000</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="7">
@@ -581,39 +581,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13 128 Blue</t>
+          <t>11 128 White</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56000</v>
+        <v>43000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>🇺🇸</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>14 128 Purple</t>
+          <t>14 256 Midnight</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>59000</v>
+        <v>73500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>🇬🇧</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13 256 Blue</t>
+          <t>12 64 Green</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>67000</v>
+        <v>45500</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>14 128 Purple</t>
+          <t>14 256 Starlight</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>61500</v>
+        <v>73500</v>
       </c>
     </row>
     <row r="9">
@@ -637,24 +637,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13 256 Midnight</t>
+          <t>13 Mini 128 Starlight</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>67000</v>
+        <v>54500</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>🇺🇸</t>
+          <t>🇪🇺</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14 128 Blue</t>
+          <t>14 256 Starlight</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>59000</v>
+        <v>73500</v>
       </c>
     </row>
     <row r="10">
@@ -665,48 +665,48 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13 256 Starlight</t>
+          <t>13 Mini 128 Midnight</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>67000</v>
+        <v>54500</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇪🇺</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>14 256 Midnight</t>
+          <t>14 256 Red</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>74000</v>
+        <v>73500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>🇦🇪</t>
+          <t>🇬🇧</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14 128 Purple</t>
+          <t>13 Mini 128 Blue</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>63500</v>
+        <v>54500</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇪🇺</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14 256 Starlight</t>
+          <t>14 256 Purple</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -721,24 +721,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14 128 Blue</t>
+          <t>13 128 Starlight</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>63500</v>
+        <v>53000</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇦🇪</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14 256 Purple</t>
+          <t>14 256 Blue</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>74000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="13">
@@ -749,54 +749,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14 128 Midnight</t>
+          <t>13 128 Midnight</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>63500</v>
+        <v>53000</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇦🇪</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14 256 Blue</t>
+          <t>14 Plus 128 Blue</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>72500</v>
+        <v>69000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇬🇧</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14 128 Starlight</t>
+          <t>13 256 Blue</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>63500</v>
+        <v>66000</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14 Plus 512 Midnight</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>86000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>🇯🇵</t>
+          <t>🇰🇿</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14 128 Red</t>
+          <t>13 256 Starlight</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>63500</v>
+        <v>66000</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Black</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>81500</v>
       </c>
     </row>
     <row r="16">
@@ -807,11 +833,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14 256 Blue</t>
+          <t>14 128 Blue</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>75000</v>
+        <v>59500</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Silver</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>81500</v>
       </c>
     </row>
     <row r="17">
@@ -822,11 +861,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14 256 Midnight</t>
+          <t>14 128 Starlight</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>75000</v>
+        <v>60000</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Silver</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>81500</v>
       </c>
     </row>
     <row r="18">
@@ -837,11 +889,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>14 256 Starlight</t>
+          <t>14 256 Midnight</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>75000</v>
+        <v>71500</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Gold</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>81500</v>
       </c>
     </row>
     <row r="19">
@@ -852,86 +917,164 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14 256 Purple</t>
+          <t>14 256 Starlight</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>76000</v>
+        <v>71500</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Purple</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>81800</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>🇨🇦</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14 Plus 128 Red</t>
+          <t>14 256 Blue</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>71000</v>
+        <v>71500</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Black</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>91000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>🇨🇦</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>14 Plus 128 Midnight</t>
+          <t>14 Plus 128 Starlight</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>73000</v>
+        <v>70000</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Gold</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>91000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>🇯🇵</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>14 Pro 128 Gold</t>
+          <t>14 Plus 128 Blue</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>85500</v>
+        <v>70000</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Purple</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>91000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>14 Plus 128 Red</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>🇯🇵</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>14 Pro 128 Silver</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>88000</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>14 Pro 512 Gold</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>117500</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>🇯🇵</t>
+          <t>🇪🇺</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>14 Pro 128 Purple</t>
+          <t>14 Pro 128 Gold</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>87000</v>
+        <v>80000</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>14 Pro 512 Gold</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>118000</v>
       </c>
     </row>
     <row r="25">
@@ -942,26 +1085,52 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>14 Pro 128 Black</t>
+          <t>14 Pro 128 Silver</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>87000</v>
+        <v>80500</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Black🇪🇺</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>88900</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Black</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>81000</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>🇦🇪</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>14 Pro 256 Black</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>95500</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Silver</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>89500</v>
       </c>
     </row>
     <row r="27">
@@ -972,56 +1141,108 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14 Pro 256 Silver</t>
+          <t>14 Pro 128 Purple</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>97500</v>
+        <v>81000</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Silver</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>89500</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>🇯🇵</t>
+          <t>🇦🇪</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>14 Pro 256 Purple</t>
+          <t>14 Pro 256 Gold</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>95000</v>
+        <v>90000</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Silver</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>89500</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>🇯🇵</t>
+          <t>🇪🇺</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>14 Pro 256 Gold</t>
+          <t>14 Pro 256 Silver</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>94500</v>
+        <v>90000</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Gold</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>88700</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>🇯🇵</t>
+          <t>🇪🇺</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14 Pro 512 Black</t>
+          <t>14 Pro 256 Black</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>118000</v>
+        <v>90500</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>🇨🇦</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Gold</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>88700</v>
       </c>
     </row>
     <row r="31">
@@ -1032,11 +1253,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>14 Pro 512 Purple</t>
+          <t>14 Pro 256 Purple</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>118000</v>
+        <v>90500</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>🇨🇦</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Purple</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>88700</v>
       </c>
     </row>
     <row r="32">
@@ -1047,11 +1281,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>14 Pro 512 Silver</t>
+          <t>14 Pro 512 Purple</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>117000</v>
+        <v>116000</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>14 Pro Max 256 Black</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>96700</v>
       </c>
     </row>
     <row r="33">
@@ -1066,52 +1313,194 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>94000</v>
+        <v>89000</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>🇨🇦</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>14 Pro Max 256 Black</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>96700</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>🇨🇦</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>14 Pro Max 128 Silver</t>
+          <t>14 Pro Max 128 Purple</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>96000</v>
+        <v>88500</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>14 Pro Max 256 Silver</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>97500</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>🇯🇵</t>
+          <t>🇪🇺</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>14 Pro Max 128 Purple</t>
+          <t>14 Pro Max 128 Silver</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>96000</v>
+        <v>88500</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>🇨🇦</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>14 Pro Max 256 Gold</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>97500</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>🇨🇦</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Black</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>89000</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>🇯🇵</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>14 Pro Max 128 Black</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>94000</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>14 Pro Max 256 Purple</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>97300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>14 Pro Max 256 Gold</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>14 Pro Max 256 Silver</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>14 Pro Max 256 Purple</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>96500</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>🇸🇬</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>14 Pro Max 256 Black</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>🇨🇦</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>14 Pro Max 1TB Black</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>🇨🇦</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>14 Pro Max 1TB Gold</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>137000</v>
       </c>
     </row>
   </sheetData>

--- a/price_full.xlsx
+++ b/price_full.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,20 +445,20 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>🇦🇪</t>
+          <t>Black🇦🇪</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>14 128 Midnight</t>
+          <t>11 64</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>60500</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="3">
@@ -469,11 +469,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SE 64 Starlight (2022)</t>
+          <t>SE 64 Red (2022)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -482,11 +482,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14 128 Starlight</t>
+          <t>11 64 Black</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>60500</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="4">
@@ -497,7 +497,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SE 128 Starlight (2022)</t>
+          <t>SE 128 Midnight (2022)</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -505,16 +505,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>🇦🇪</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14 128 Purple</t>
+          <t>11 64 White</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>60500</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="5">
@@ -525,58 +525,58 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SE 128 Midnight (2022)</t>
+          <t>SE 128 Starlight (2022)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36000</v>
+        <v>36500</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>Black🇦🇪</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14 128 Purple</t>
+          <t>11 128</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>60500</v>
+        <v>41500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11 64 White</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>🇬🇧</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>11 64 Black</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>36500</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>🇮🇳</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14 128 Blue</t>
+          <t>11 128 Black</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>60500</v>
+        <v>41500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇦🇪</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>43000</v>
+        <v>42500</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -594,26 +594,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>14 256 Midnight</t>
+          <t>11 128 White</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>73500</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇦🇪</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12 64 Green</t>
+          <t>11 128 Black</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45500</v>
+        <v>41500</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -622,207 +622,207 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>14 256 Starlight</t>
+          <t>12 Mini 64 Black</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>73500</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>🇬🇧</t>
+          <t>🇨🇦</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13 Mini 128 Starlight</t>
+          <t>12 64 Black</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>54500</v>
+        <v>46500</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>Black🇺🇸</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14 256 Starlight</t>
+          <t>12 Mini 128</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>73500</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>🇬🇧</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13 Mini 128 Midnight</t>
+          <t>12 128 Blue</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>54500</v>
+        <v>50500</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>White🇸🇬</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>14 256 Red</t>
+          <t>12 Mini 128</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>73500</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>🇬🇧</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13 Mini 128 Blue</t>
+          <t>12 128 White</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>54500</v>
+        <v>53000</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>🇸🇬</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14 256 Purple</t>
+          <t>12 Mini 128 Red</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>73500</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇺🇸</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13 128 Starlight</t>
+          <t>13 Mini 128 Starlight</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>53000</v>
+        <v>52500</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>🇦🇪</t>
+          <t>Purple🇸🇬</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14 256 Blue</t>
+          <t>12 Mini 128</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>72000</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇺🇸</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13 128 Midnight</t>
+          <t>13 Mini 128 Midnight</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>53000</v>
+        <v>52500</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>🇦🇪</t>
+          <t>🇸🇬</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14 Plus 128 Blue</t>
+          <t>12 Mini 128 Green</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>69000</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>🇬🇧</t>
+          <t>🇺🇸</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13 256 Blue</t>
+          <t>13 Mini 128 Green</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>66000</v>
+        <v>53000</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>🇯🇵</t>
+          <t>🇸🇬</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>14 Plus 512 Midnight</t>
+          <t>12 Mini 128 Blue</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>86000</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>🇰🇿</t>
+          <t>🇺🇸</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13 256 Starlight</t>
+          <t>13 Mini 128 Blue</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>66000</v>
+        <v>52500</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>🇸🇬</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>14 Pro 128 Black</t>
+          <t>12 Mini 256 Black</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>81500</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="16">
@@ -833,24 +833,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14 128 Blue</t>
+          <t>13 128 Green</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>59500</v>
+        <v>57000</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>🇯🇵</t>
+          <t>🇸🇬</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>14 Pro 128 Silver</t>
+          <t>12 Mini 256 White</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>81500</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="17">
@@ -861,52 +861,52 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14 128 Starlight</t>
+          <t>13 128 Pink</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>60000</v>
+        <v>57000</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>🇸🇬</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>14 Pro 128 Silver</t>
+          <t>12 Mini 256 Red</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>81500</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇦🇪</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>14 256 Midnight</t>
+          <t>13 128 Midnight</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>71500</v>
+        <v>54100</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>🇸🇬</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>14 Pro 128 Gold</t>
+          <t>12 Mini 256 Purple</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>81500</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="19">
@@ -917,24 +917,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14 256 Starlight</t>
+          <t>13 128 Starlight</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>71500</v>
+        <v>54100</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>🇦🇪</t>
+          <t>🇸🇬</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14 Pro 128 Purple</t>
+          <t>12 Mini 256 Green</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>81800</v>
+        <v>46500</v>
       </c>
     </row>
     <row r="20">
@@ -945,136 +945,136 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14 256 Blue</t>
+          <t>13 128 Blue</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>71500</v>
+        <v>54000</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14 Pro 256 Black</t>
+          <t>12 128 Black</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>91000</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇺🇸</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>14 Plus 128 Starlight</t>
+          <t>13 256 Midnight</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>70000</v>
+        <v>66000</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14 Pro 256 Gold</t>
+          <t>12 128 White</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>91000</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>🇮🇳</t>
+          <t>🇪🇺</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>14 Plus 128 Blue</t>
+          <t>13 256 Red</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>70000</v>
+        <v>66000</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>Red🇮🇳</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>14 Pro 256 Purple</t>
+          <t>12 128</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>91000</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>🇦🇪</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>14 Plus 128 Red</t>
+          <t>13 256 Blue</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>70000</v>
+        <v>66000</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>🇯🇵</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>14 Pro 512 Gold</t>
+          <t>12 128 Purple</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>117500</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>14 Pro 128 Gold</t>
+          <t>14 128 Purple</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>80000</v>
+        <v>60500</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>14 Pro 512 Gold</t>
+          <t>12 128 Green</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>118000</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="25">
@@ -1085,24 +1085,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>14 Pro 128 Silver</t>
+          <t>14 256 Starlight</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>80500</v>
+        <v>71500</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Black🇪🇺</t>
+          <t>🇦🇪</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>14 Pro Max 128</t>
+          <t>12 128 Blue</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>88900</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="26">
@@ -1113,80 +1113,80 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>14 Pro 128 Black</t>
+          <t>14 256 Midnight</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>81000</v>
+        <v>72000</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>🇦🇪</t>
+          <t>🇪🇺</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>14 Pro Max 128 Silver</t>
+          <t>12 256 Black</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>89500</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>🇯🇵</t>
+          <t>🇦🇪</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14 Pro 128 Purple</t>
+          <t>14 256 Blue</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>81000</v>
+        <v>70000</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>🇦🇪</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>14 Pro Max 128 Silver</t>
+          <t>12 256 Blue</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>89500</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>🇦🇪</t>
+          <t>🇮🇳</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>14 Pro 256 Gold</t>
+          <t>14 256 Purple</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>90000</v>
+        <v>72500</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>🇬🇧</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14 Pro Max 128 Silver</t>
+          <t>13 Mini 128 Midnight</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>89500</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="29">
@@ -1197,108 +1197,108 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>14 Pro 256 Silver</t>
+          <t>14 Pro 128 Silver</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>90000</v>
+        <v>81000</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>🇬🇧</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>14 Pro Max 128 Gold</t>
+          <t>13 Mini 128 Starlight</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>88700</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>🇨🇦</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14 Pro 256 Black</t>
+          <t>14 Pro 128 Purple</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>90500</v>
+        <v>81000</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>🇨🇦</t>
+          <t>🇬🇧</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14 Pro Max 128 Gold</t>
+          <t>13 Mini 128 Pink</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>88700</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>🇸🇬</t>
+          <t>🇨🇦</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>14 Pro 256 Purple</t>
+          <t>14 Pro 128 Black</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>90500</v>
+        <v>81500</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>🇨🇦</t>
+          <t>🇺🇸</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14 Pro Max 128 Purple</t>
+          <t>13 Mini 128 Green</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>88700</v>
+        <v>51500</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>🇯🇵</t>
+          <t>🇦🇪</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>14 Pro 512 Purple</t>
+          <t>14 Pro 256 Black</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>116000</v>
+        <v>89500</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>🇯🇵</t>
+          <t>🇪🇺</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14 Pro Max 256 Black</t>
+          <t>13 Mini 128 Green</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>96700</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="33">
@@ -1309,123 +1309,136 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>14 Pro Max 128 Gold</t>
+          <t>14 Pro 512 Purple</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>89000</v>
+        <v>112500</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>🇨🇦</t>
+          <t>🇬🇧</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14 Pro Max 256 Black</t>
+          <t>13 Mini 128 Blue</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>96700</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>🇨🇦</t>
+          <t>🇪🇺</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>14 Pro Max 128 Purple</t>
+          <t>14 Pro 512 Black</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>88500</v>
+        <v>113000</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>🇺🇸</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>14 Pro Max 256 Silver</t>
+          <t>13 Mini 256 Starlight</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>97500</v>
+        <v>61500</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>🇪🇺</t>
+          <t>🇯🇵</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>14 Pro Max 128 Silver</t>
+          <t>14 Pro 512 Silver</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>88500</v>
+        <v>113000</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>🇨🇦</t>
+          <t>🇦🇪</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14 Pro Max 256 Gold</t>
+          <t>13 Mini 256 Red</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>97500</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>🇨🇦</t>
+          <t>🇯🇵</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>14 Pro Max 128 Black</t>
+          <t>14 Pro 512 Gold</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>89000</v>
+        <v>112500</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>🇯🇵</t>
+          <t>🇺🇸</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>14 Pro Max 256 Purple</t>
+          <t>13 Mini 256 Pink</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>97300</v>
+        <v>61500</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>🇦🇪</t>
+          <t>🇪🇺</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>14 Pro Max 256 Gold</t>
+          <t>14 Pro Max 128 Gold</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>97000</v>
+        <v>88500</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Green🇺🇸</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>13 Mini 256</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>63500</v>
       </c>
     </row>
     <row r="38">
@@ -1436,32 +1449,58 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14 Pro Max 256 Silver</t>
+          <t>14 Pro Max 128 Silver</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>96000</v>
+        <v>88500</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>13 128 Midnight</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>54000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>🇯🇵</t>
+          <t>🇨🇦</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>14 Pro Max 256 Purple</t>
+          <t>14 Pro Max 128 Purple</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>96500</v>
+        <v>89500</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>13 128 Starlight</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>54000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>🇸🇬</t>
+          <t>🇪🇺</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1470,22 +1509,48 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>96000</v>
+        <v>96500</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>🇺🇸</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>13 128 Pink</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>55800</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>🇨🇦</t>
+          <t>🇯🇵</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>14 Pro Max 1TB Black</t>
+          <t>14 Pro Max 256 Purple</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>138000</v>
+        <v>98000</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>13 128 Pink</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>56000</v>
       </c>
     </row>
     <row r="42">
@@ -1496,11 +1561,766 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>14 Pro Max 256 Gold</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>97000</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>13 128 Green</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>56800</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>14 Pro Max 512 Gold</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>116500</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>13 128 Blue</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>53800</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>🇨🇦</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>14 Pro Max 512 Purple</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>117000</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>13 256 Starlight</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>14 Pro Max 512 Black</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>116500</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>13 256 Blue</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>66500</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>14 Pro Max 1TB Black</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>131500</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>13 Pro 256 Green</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>13 Pro 512 Green</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>13 Pro 1TB Graphite</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>13 Pro 1TB Blue</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>13 Pro Max 128 Green</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>13 Pro Max 256 Blue</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>🇬🇧</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>13 Pro Max 512 Graphite</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>106000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>13 Pro Max 1TB Green</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>14 128 Starlight</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>14 128 Purple</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>60500</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>14 128 Blue</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>59900</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>14 256 Midnight</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>71500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>14 256 Starlight</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>14 256 Purple</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>71500</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>14 256 Blue</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>14 Plus 128 Midnight</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>68500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>🇮🇳</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>14 Plus 128 Starlight</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>14 Plus 256 Purple</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>14 Plus 512 Red</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Black</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>81500</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Silver</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Gold</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>14 Pro 128 Purple</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Black</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>89500</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Gold</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Gold</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>89200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>14 Pro 256 Purple</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>89800</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>🇰🇷</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>14 Pro 512 Black</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>116300</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>14 Pro 512 Gold</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>115800</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>14 Pro 512 Purple</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>115800</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Black</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>88300</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Silver</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>88500</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Gold</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>88500</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>14 Pro Max 128 Purple</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>88900</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>14 Pro Max 256 Black</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>96800</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>14 Pro Max 256 Silver</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>98500</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>14 Pro Max 256 Gold</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>97500</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>14 Pro Max 256 Purple</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>98500</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>14 Pro Max 512 Black</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>14 Pro Max 512 Gold</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>116500</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>14 Pro Max 1TB Silver</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>133300</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>🇯🇵</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
           <t>14 Pro Max 1TB Gold</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>137000</v>
+      <c r="F87" t="n">
+        <v>133300</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>🇦🇪</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>14 Pro Max 1TB Purple</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>133300</v>
       </c>
     </row>
   </sheetData>
